--- a/loesite/output_LoE/cisco_Security_LoE.xlsx
+++ b/loesite/output_LoE/cisco_Security_LoE.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stealthwatch" sheetId="1" state="visible" r:id="rId1"/>
@@ -338,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1073,6 +1073,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1A0C7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB1A0C7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1120,6 +1151,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB1A0C7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB1A0C7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -1128,7 +1172,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1255,15 +1299,13 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="55" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="27" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="7" fillId="12" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="29" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1279,19 +1321,39 @@
     <xf numFmtId="1" fontId="11" fillId="12" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="58" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="60" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="11" fillId="12" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="7" fillId="12" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="1" fontId="11" fillId="12" borderId="66" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="7" fillId="12" borderId="62" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="2"/>
@@ -1317,6 +1379,194 @@
   <dxfs count="30">
     <dxf>
       <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color rgb="FFFF0000"/>
+        <extend val="0"/>
+        <sz val="16"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1327,13 +1577,191 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color rgb="FFFF0000"/>
+        <extend val="0"/>
+        <sz val="16"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border>
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom"/>
+      <border outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1535,379 +1963,13 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color rgb="FFFF0000"/>
-        <extend val="0"/>
-        <sz val="16"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
       <fill>
         <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border>
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color rgb="FFFF0000"/>
-        <extend val="0"/>
-        <sz val="16"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border>
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom"/>
-      <border outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1983,18 +2045,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22463443234" displayName="Table22463443234" ref="B81:F93" headerRowCount="1" totalsRowCount="1" headerRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table22463443234" displayName="Table22463443234" ref="B81:F93" headerRowCount="1" totalsRowCount="1" headerRowBorderDxfId="28">
   <autoFilter ref="B81:F92"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Milestone" totalsRowDxfId="28"/>
-    <tableColumn id="2" name="Activity" totalsRowDxfId="27"/>
-    <tableColumn id="7" name="CXC PM" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="1" name="Milestone" totalsRowDxfId="27"/>
+    <tableColumn id="2" name="Activity" totalsRowDxfId="26"/>
+    <tableColumn id="7" name="CXC PM" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>SUM(#REF!*cxc_pm_loading)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="T&amp;E" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="11" name="T&amp;E" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Total Price" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="5" name="Total Price" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2003,18 +2065,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table224634432" displayName="Table224634432" ref="B85:F97" headerRowCount="1" totalsRowCount="1" headerRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table224634432" displayName="Table224634432" ref="B85:F97" headerRowCount="1" totalsRowCount="1" headerRowBorderDxfId="18">
   <autoFilter ref="B85:F96"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Milestone" totalsRowDxfId="19"/>
-    <tableColumn id="2" name="Activity" totalsRowDxfId="18"/>
-    <tableColumn id="7" name="CXC PM" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="1" name="Milestone" totalsRowDxfId="17"/>
+    <tableColumn id="2" name="Activity" totalsRowDxfId="16"/>
+    <tableColumn id="7" name="CXC PM" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>SUM(#REF!*cxc_pm_loading)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="T&amp;E" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="11" name="T&amp;E" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Total Price" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="5" name="Total Price" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2023,18 +2085,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2246344323" displayName="Table2246344323" ref="B87:F99" headerRowCount="1" totalsRowCount="1" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2246344323" displayName="Table2246344323" ref="B87:F99" headerRowCount="1" totalsRowCount="1" headerRowBorderDxfId="8">
   <autoFilter ref="B87:F98"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Milestone" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="Activity" totalsRowDxfId="9"/>
-    <tableColumn id="7" name="CXC PM" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="1" name="Milestone" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Activity" totalsRowDxfId="6"/>
+    <tableColumn id="7" name="CXC PM" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>SUM(#REF!*cxc_pm_loading)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="T&amp;E" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="11" name="T&amp;E" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Total Price" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="5" name="Total Price" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>SUM(#REF!)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2345,8 +2407,8 @@
   </sheetPr>
   <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -2367,12 +2429,12 @@
       <c r="L1" s="86" t="n"/>
     </row>
     <row r="2" ht="16" customHeight="1" s="59">
-      <c r="B2" s="111" t="inlineStr">
+      <c r="B2" s="116" t="inlineStr">
         <is>
           <t>Customer Details</t>
         </is>
       </c>
-      <c r="C2" s="112" t="n"/>
+      <c r="C2" s="117" t="n"/>
       <c r="L2" s="86" t="n"/>
     </row>
     <row r="3" ht="16" customHeight="1" s="59">
@@ -2383,7 +2445,7 @@
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>cisco</t>
         </is>
       </c>
       <c r="L3" s="86" t="n"/>
@@ -2577,8 +2639,12 @@
           <t xml:space="preserve"> - Project Initiation &amp; Kick-off</t>
         </is>
       </c>
-      <c r="D16" s="92" t="n"/>
-      <c r="E16" s="19" t="n"/>
+      <c r="D16" s="92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="19" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F16" s="29" t="n"/>
       <c r="G16" s="30" t="n"/>
       <c r="H16" s="22" t="n">
@@ -2592,7 +2658,7 @@
         <f>SUM(D16:E16)</f>
         <v/>
       </c>
-      <c r="K16" s="113">
+      <c r="K16" s="118">
         <f>SUM(J16:J18)</f>
         <v/>
       </c>
@@ -2608,8 +2674,12 @@
           <t xml:space="preserve"> - Discovery &amp; Workshops</t>
         </is>
       </c>
-      <c r="D17" s="92" t="n"/>
-      <c r="E17" s="19" t="n"/>
+      <c r="D17" s="92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E17" s="19" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F17" s="29" t="n"/>
       <c r="G17" s="30" t="n"/>
       <c r="H17" s="22" t="n">
@@ -2623,7 +2693,7 @@
         <f>SUM(D17:E17)</f>
         <v/>
       </c>
-      <c r="K17" s="114" t="n"/>
+      <c r="K17" s="119" t="n"/>
       <c r="L17" s="25" t="n"/>
       <c r="M17" s="28" t="n"/>
       <c r="N17" s="88" t="n"/>
@@ -2636,8 +2706,12 @@
           <t xml:space="preserve"> - CRD creation/revision</t>
         </is>
       </c>
-      <c r="D18" s="92" t="n"/>
-      <c r="E18" s="19" t="n"/>
+      <c r="D18" s="92" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="19" t="n">
+        <v>3</v>
+      </c>
       <c r="F18" s="29" t="n"/>
       <c r="G18" s="30" t="n"/>
       <c r="H18" s="22" t="n">
@@ -2651,7 +2725,7 @@
         <f>SUM(D18:E18)</f>
         <v/>
       </c>
-      <c r="K18" s="115" t="n"/>
+      <c r="K18" s="120" t="n"/>
       <c r="L18" s="25" t="n"/>
       <c r="M18" s="28" t="n"/>
       <c r="N18" s="88" t="n"/>
@@ -2700,8 +2774,12 @@
           <t xml:space="preserve"> - Workshops</t>
         </is>
       </c>
-      <c r="D21" s="92" t="n"/>
-      <c r="E21" s="19" t="n"/>
+      <c r="D21" s="92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E21" s="19" t="n">
+        <v>2.5</v>
+      </c>
       <c r="F21" s="29" t="n"/>
       <c r="G21" s="30" t="n"/>
       <c r="H21" s="22" t="n">
@@ -2715,8 +2793,8 @@
         <f>SUM(D21:E21)</f>
         <v/>
       </c>
-      <c r="K21" s="105">
-        <f>SUM(J21:J25)</f>
+      <c r="K21" s="121">
+        <f>SUM(J21:J24)</f>
         <v/>
       </c>
       <c r="L21" s="25" t="n"/>
@@ -2731,8 +2809,12 @@
           <t xml:space="preserve"> - Draft  Solution Design Document (SDD)</t>
         </is>
       </c>
-      <c r="D22" s="92" t="n"/>
-      <c r="E22" s="19" t="n"/>
+      <c r="D22" s="92" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="19" t="n">
+        <v>6</v>
+      </c>
       <c r="F22" s="29" t="n"/>
       <c r="G22" s="30" t="n"/>
       <c r="H22" s="22" t="n">
@@ -2746,7 +2828,7 @@
         <f>SUM(D22:E22)</f>
         <v/>
       </c>
-      <c r="K22" s="114" t="n"/>
+      <c r="K22" s="122" t="n"/>
       <c r="L22" s="25" t="n"/>
       <c r="M22" s="28" t="n"/>
       <c r="N22" s="87" t="n"/>
@@ -2759,8 +2841,12 @@
           <t xml:space="preserve"> - Review &amp; update</t>
         </is>
       </c>
-      <c r="D23" s="92" t="n"/>
-      <c r="E23" s="19" t="n"/>
+      <c r="D23" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" s="29" t="n"/>
       <c r="G23" s="30" t="n"/>
       <c r="H23" s="22" t="n">
@@ -2774,7 +2860,7 @@
         <f>SUM(D23:E23)</f>
         <v/>
       </c>
-      <c r="K23" s="114" t="n"/>
+      <c r="K23" s="122" t="n"/>
       <c r="L23" s="25" t="n"/>
       <c r="M23" s="28" t="n"/>
       <c r="N23" s="88" t="n"/>
@@ -2787,8 +2873,12 @@
           <t xml:space="preserve"> - Presentation to customer &amp; final updates</t>
         </is>
       </c>
-      <c r="D24" s="92" t="n"/>
-      <c r="E24" s="19" t="n"/>
+      <c r="D24" s="92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="19" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F24" s="29" t="n"/>
       <c r="G24" s="30" t="n"/>
       <c r="H24" s="22" t="n">
@@ -2802,7 +2892,7 @@
         <f>SUM(D24:E24)</f>
         <v/>
       </c>
-      <c r="K24" s="114" t="n"/>
+      <c r="K24" s="123" t="n"/>
       <c r="L24" s="25" t="n"/>
       <c r="M24" s="28" t="n"/>
       <c r="N24" s="88" t="n"/>
@@ -2815,18 +2905,10 @@
       <c r="E25" s="19" t="n"/>
       <c r="F25" s="29" t="n"/>
       <c r="G25" s="30" t="n"/>
-      <c r="H25" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="99">
-        <f>(J25*8)</f>
-        <v/>
-      </c>
-      <c r="J25" s="23">
-        <f>SUM(D25:E25)</f>
-        <v/>
-      </c>
-      <c r="K25" s="114" t="n"/>
+      <c r="H25" s="22" t="n"/>
+      <c r="I25" s="99" t="n"/>
+      <c r="J25" s="23" t="n"/>
+      <c r="K25" s="104" t="n"/>
       <c r="L25" s="25" t="n"/>
       <c r="M25" s="28" t="n"/>
       <c r="N25" s="88" t="n"/>
@@ -2842,7 +2924,7 @@
       <c r="H26" s="22" t="n"/>
       <c r="I26" s="23" t="n"/>
       <c r="J26" s="23" t="n"/>
-      <c r="K26" s="46" t="n"/>
+      <c r="K26" s="24" t="n"/>
       <c r="L26" s="25" t="n"/>
       <c r="M26" s="28" t="n"/>
       <c r="N26" s="88" t="n"/>
@@ -2875,8 +2957,12 @@
           <t xml:space="preserve"> - Workshops</t>
         </is>
       </c>
-      <c r="D28" s="92" t="n"/>
-      <c r="E28" s="19" t="n"/>
+      <c r="D28" s="92" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E28" s="19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F28" s="29" t="n"/>
       <c r="G28" s="30" t="n"/>
       <c r="H28" s="22" t="n">
@@ -2890,7 +2976,7 @@
         <f>SUM(D28:E28)</f>
         <v/>
       </c>
-      <c r="K28" s="105">
+      <c r="K28" s="107">
         <f>SUM(J28:J31)</f>
         <v/>
       </c>
@@ -2906,8 +2992,12 @@
           <t xml:space="preserve"> - Draft Implementation Plan</t>
         </is>
       </c>
-      <c r="D29" s="92" t="n"/>
-      <c r="E29" s="19" t="n"/>
+      <c r="D29" s="92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" s="19" t="n">
+        <v>8</v>
+      </c>
       <c r="F29" s="29" t="n"/>
       <c r="G29" s="30" t="n"/>
       <c r="H29" s="22" t="n">
@@ -2921,7 +3011,7 @@
         <f>SUM(D29:E29)</f>
         <v/>
       </c>
-      <c r="K29" s="114" t="n"/>
+      <c r="K29" s="119" t="n"/>
       <c r="L29" s="25" t="n"/>
       <c r="M29" s="28" t="n"/>
       <c r="N29" s="88" t="n"/>
@@ -2934,8 +3024,12 @@
           <t xml:space="preserve"> - Reviews &amp; updates</t>
         </is>
       </c>
-      <c r="D30" s="92" t="n"/>
-      <c r="E30" s="19" t="n"/>
+      <c r="D30" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="F30" s="29" t="n"/>
       <c r="G30" s="30" t="n"/>
       <c r="H30" s="22" t="n">
@@ -2949,7 +3043,7 @@
         <f>SUM(D30:E30)</f>
         <v/>
       </c>
-      <c r="K30" s="114" t="n"/>
+      <c r="K30" s="119" t="n"/>
       <c r="L30" s="25" t="n"/>
       <c r="M30" s="28" t="n"/>
       <c r="N30" s="87" t="n"/>
@@ -2962,8 +3056,12 @@
           <t xml:space="preserve"> - Presentation to customer &amp; final updates</t>
         </is>
       </c>
-      <c r="D31" s="92" t="n"/>
-      <c r="E31" s="19" t="n"/>
+      <c r="D31" s="92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="19" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F31" s="29" t="n"/>
       <c r="G31" s="30" t="n"/>
       <c r="H31" s="22" t="n">
@@ -2977,7 +3075,7 @@
         <f>SUM(D31:E31)</f>
         <v/>
       </c>
-      <c r="K31" s="114" t="n"/>
+      <c r="K31" s="119" t="n"/>
       <c r="L31" s="25" t="n"/>
       <c r="M31" s="28" t="n"/>
       <c r="N31" s="89" t="n"/>
@@ -3041,7 +3139,7 @@
         <f>SUM(D34:E34)</f>
         <v/>
       </c>
-      <c r="K34" s="113">
+      <c r="K34" s="118">
         <f>SUM(J34:J37)</f>
         <v/>
       </c>
@@ -3057,8 +3155,12 @@
           <t xml:space="preserve"> - Draft Test Plan (NRFU)</t>
         </is>
       </c>
-      <c r="D35" s="92" t="n"/>
-      <c r="E35" s="19" t="n"/>
+      <c r="D35" s="92" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" s="19" t="n">
+        <v>6</v>
+      </c>
       <c r="F35" s="29" t="n"/>
       <c r="G35" s="30" t="n"/>
       <c r="H35" s="22" t="n">
@@ -3072,7 +3174,7 @@
         <f>SUM(D35:E35)</f>
         <v/>
       </c>
-      <c r="K35" s="114" t="n"/>
+      <c r="K35" s="119" t="n"/>
       <c r="L35" s="25" t="n"/>
       <c r="M35" s="28" t="n"/>
       <c r="N35" s="87" t="n"/>
@@ -3085,8 +3187,12 @@
           <t xml:space="preserve"> - Reviews &amp; updates</t>
         </is>
       </c>
-      <c r="D36" s="92" t="n"/>
-      <c r="E36" s="19" t="n"/>
+      <c r="D36" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="F36" s="29" t="n"/>
       <c r="G36" s="30" t="n"/>
       <c r="H36" s="22" t="n">
@@ -3100,7 +3206,7 @@
         <f>SUM(D36:E36)</f>
         <v/>
       </c>
-      <c r="K36" s="114" t="n"/>
+      <c r="K36" s="119" t="n"/>
       <c r="L36" s="25" t="n"/>
       <c r="M36" s="28" t="n"/>
       <c r="N36" s="89" t="n"/>
@@ -3128,7 +3234,7 @@
         <f>SUM(D37:E37)</f>
         <v/>
       </c>
-      <c r="K37" s="115" t="n"/>
+      <c r="K37" s="120" t="n"/>
       <c r="L37" s="25" t="n"/>
       <c r="M37" s="28" t="n"/>
       <c r="N37" s="89" t="n"/>
@@ -3212,7 +3318,7 @@
         <f>SUM(D41:E41)</f>
         <v/>
       </c>
-      <c r="K41" s="113">
+      <c r="K41" s="118">
         <f>SUM(J41:J46)</f>
         <v/>
       </c>
@@ -3228,8 +3334,12 @@
           <t xml:space="preserve"> - Build/configure lab</t>
         </is>
       </c>
-      <c r="D42" s="92" t="n"/>
-      <c r="E42" s="19" t="n"/>
+      <c r="D42" s="92" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" s="19" t="n">
+        <v>4</v>
+      </c>
       <c r="F42" s="29" t="n"/>
       <c r="G42" s="30" t="n"/>
       <c r="H42" s="22" t="n">
@@ -3243,7 +3353,7 @@
         <f>SUM(D42:E42)</f>
         <v/>
       </c>
-      <c r="K42" s="114" t="n"/>
+      <c r="K42" s="119" t="n"/>
       <c r="L42" s="25" t="n"/>
       <c r="M42" s="28" t="n"/>
       <c r="N42" s="89" t="n"/>
@@ -3256,8 +3366,12 @@
           <t xml:space="preserve"> - Test Execution</t>
         </is>
       </c>
-      <c r="D43" s="92" t="n"/>
-      <c r="E43" s="19" t="n"/>
+      <c r="D43" s="92" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" s="19" t="n">
+        <v>4</v>
+      </c>
       <c r="F43" s="29" t="n"/>
       <c r="G43" s="30" t="n"/>
       <c r="H43" s="22" t="n">
@@ -3271,7 +3385,7 @@
         <f>SUM(D43:E43)</f>
         <v/>
       </c>
-      <c r="K43" s="114" t="n"/>
+      <c r="K43" s="119" t="n"/>
       <c r="L43" s="25" t="n"/>
       <c r="M43" s="28" t="n"/>
       <c r="N43" s="89" t="n"/>
@@ -3284,8 +3398,12 @@
           <t xml:space="preserve"> - 3rd Party Integration Verification</t>
         </is>
       </c>
-      <c r="D44" s="92" t="n"/>
-      <c r="E44" s="19" t="n"/>
+      <c r="D44" s="92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" s="29" t="n"/>
       <c r="G44" s="30" t="n"/>
       <c r="H44" s="22" t="n">
@@ -3299,7 +3417,7 @@
         <f>SUM(D44:E44)</f>
         <v/>
       </c>
-      <c r="K44" s="114" t="n"/>
+      <c r="K44" s="119" t="n"/>
       <c r="L44" s="25" t="n"/>
       <c r="M44" s="28" t="n"/>
       <c r="N44" s="89" t="n"/>
@@ -3312,8 +3430,12 @@
           <t xml:space="preserve"> - API Use Cases Verification</t>
         </is>
       </c>
-      <c r="D45" s="92" t="n"/>
-      <c r="E45" s="19" t="n"/>
+      <c r="D45" s="92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="F45" s="29" t="n"/>
       <c r="G45" s="30" t="n"/>
       <c r="H45" s="22" t="n">
@@ -3327,7 +3449,7 @@
         <f>SUM(D45:E45)</f>
         <v/>
       </c>
-      <c r="K45" s="114" t="n"/>
+      <c r="K45" s="119" t="n"/>
       <c r="L45" s="25" t="n"/>
       <c r="M45" s="28" t="n"/>
       <c r="N45" s="89" t="n"/>
@@ -3355,7 +3477,7 @@
         <f>SUM(D46:E46)</f>
         <v/>
       </c>
-      <c r="K46" s="115" t="n"/>
+      <c r="K46" s="120" t="n"/>
       <c r="L46" s="25" t="n"/>
       <c r="M46" s="28" t="n"/>
       <c r="N46" s="87" t="n"/>
@@ -3404,8 +3526,12 @@
           <t xml:space="preserve"> - SW Installation (include all steatchwatch components)</t>
         </is>
       </c>
-      <c r="D49" s="92" t="n"/>
-      <c r="E49" s="19" t="n"/>
+      <c r="D49" s="92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E49" s="19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="F49" s="29" t="n"/>
       <c r="G49" s="30" t="n"/>
       <c r="H49" s="22" t="n">
@@ -3419,8 +3545,8 @@
         <f>SUM(D49:E49)</f>
         <v/>
       </c>
-      <c r="K49" s="116">
-        <f>SUM(J49:J58)</f>
+      <c r="K49" s="118">
+        <f>SUM(J49:J54)</f>
         <v/>
       </c>
       <c r="L49" s="25" t="n"/>
@@ -3435,8 +3561,12 @@
           <t xml:space="preserve"> - Basic Configuration</t>
         </is>
       </c>
-      <c r="D50" s="92" t="n"/>
-      <c r="E50" s="19" t="n"/>
+      <c r="D50" s="92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" s="29" t="n"/>
       <c r="G50" s="30" t="n"/>
       <c r="H50" s="22" t="n">
@@ -3450,7 +3580,7 @@
         <f>SUM(D50:E50)</f>
         <v/>
       </c>
-      <c r="K50" s="114" t="n"/>
+      <c r="K50" s="119" t="n"/>
       <c r="L50" s="25" t="n"/>
       <c r="M50" s="28" t="n"/>
       <c r="N50" s="88" t="n"/>
@@ -3463,8 +3593,12 @@
           <t xml:space="preserve"> - ISE Integration and quarantine policy setup (optional)</t>
         </is>
       </c>
-      <c r="D51" s="92" t="n"/>
-      <c r="E51" s="19" t="n"/>
+      <c r="D51" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="F51" s="29" t="n"/>
       <c r="G51" s="30" t="n"/>
       <c r="H51" s="22" t="n">
@@ -3478,7 +3612,7 @@
         <f>SUM(D51:E51)</f>
         <v/>
       </c>
-      <c r="K51" s="114" t="n"/>
+      <c r="K51" s="119" t="n"/>
       <c r="L51" s="25" t="n"/>
       <c r="M51" s="28" t="n"/>
       <c r="N51" s="87" t="n"/>
@@ -3506,7 +3640,7 @@
         <f>SUM(D52:E52)</f>
         <v/>
       </c>
-      <c r="K52" s="114" t="n"/>
+      <c r="K52" s="119" t="n"/>
       <c r="L52" s="25" t="n"/>
       <c r="M52" s="28" t="n"/>
       <c r="N52" s="87" t="n"/>
@@ -3519,11 +3653,17 @@
           <t xml:space="preserve"> - 3rd Party Integration (SIEM, like splunk)</t>
         </is>
       </c>
-      <c r="D53" s="92" t="n"/>
-      <c r="E53" s="19" t="n"/>
+      <c r="D53" s="92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="F53" s="29" t="n"/>
       <c r="G53" s="30" t="n"/>
-      <c r="H53" s="22" t="n"/>
+      <c r="H53" s="22" t="n">
+        <v>6</v>
+      </c>
       <c r="I53" s="99">
         <f>(J53*8)</f>
         <v/>
@@ -3532,7 +3672,7 @@
         <f>SUM(D53:E53)</f>
         <v/>
       </c>
-      <c r="K53" s="114" t="n"/>
+      <c r="K53" s="119" t="n"/>
       <c r="L53" s="25" t="n"/>
       <c r="M53" s="28" t="n"/>
       <c r="N53" s="87" t="n"/>
@@ -3545,8 +3685,12 @@
           <t xml:space="preserve"> - Post Configuration Check</t>
         </is>
       </c>
-      <c r="D54" s="92" t="n"/>
-      <c r="E54" s="19" t="n"/>
+      <c r="D54" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="F54" s="29" t="n"/>
       <c r="G54" s="30" t="n"/>
       <c r="H54" s="22" t="n">
@@ -3560,7 +3704,7 @@
         <f>SUM(D54:E54)</f>
         <v/>
       </c>
-      <c r="K54" s="114" t="n"/>
+      <c r="K54" s="120" t="n"/>
       <c r="L54" s="25" t="n"/>
       <c r="M54" s="28" t="n"/>
       <c r="N54" s="87" t="n"/>
@@ -3574,15 +3718,9 @@
       <c r="F55" s="29" t="n"/>
       <c r="G55" s="30" t="n"/>
       <c r="H55" s="22" t="n"/>
-      <c r="I55" s="99">
-        <f>(J55*8)</f>
-        <v/>
-      </c>
-      <c r="J55" s="23">
-        <f>SUM(D55:E55)</f>
-        <v/>
-      </c>
-      <c r="K55" s="114" t="n"/>
+      <c r="I55" s="99" t="n"/>
+      <c r="J55" s="23" t="n"/>
+      <c r="K55" s="33" t="n"/>
       <c r="L55" s="25" t="n"/>
       <c r="M55" s="28" t="n"/>
       <c r="N55" s="87" t="n"/>
@@ -3596,15 +3734,9 @@
       <c r="F56" s="29" t="n"/>
       <c r="G56" s="30" t="n"/>
       <c r="H56" s="22" t="n"/>
-      <c r="I56" s="99">
-        <f>(J56*8)</f>
-        <v/>
-      </c>
-      <c r="J56" s="23">
-        <f>SUM(D56:E56)</f>
-        <v/>
-      </c>
-      <c r="K56" s="114" t="n"/>
+      <c r="I56" s="99" t="n"/>
+      <c r="J56" s="23" t="n"/>
+      <c r="K56" s="33" t="n"/>
       <c r="L56" s="25" t="n"/>
       <c r="M56" s="28" t="n"/>
       <c r="N56" s="87" t="n"/>
@@ -3622,15 +3754,9 @@
       <c r="F57" s="29" t="n"/>
       <c r="G57" s="30" t="n"/>
       <c r="H57" s="22" t="n"/>
-      <c r="I57" s="99">
-        <f>(J57*8)</f>
-        <v/>
-      </c>
-      <c r="J57" s="23">
-        <f>SUM(D57:E57)</f>
-        <v/>
-      </c>
-      <c r="K57" s="114" t="n"/>
+      <c r="I57" s="99" t="n"/>
+      <c r="J57" s="23" t="n"/>
+      <c r="K57" s="33" t="n"/>
       <c r="L57" s="25" t="n"/>
       <c r="M57" s="28" t="n"/>
       <c r="N57" s="87" t="n"/>
@@ -3643,8 +3769,12 @@
           <t xml:space="preserve"> - Knowledge transfer</t>
         </is>
       </c>
-      <c r="D58" s="92" t="n"/>
-      <c r="E58" s="19" t="n"/>
+      <c r="D58" s="92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E58" s="19" t="n">
+        <v>8.5</v>
+      </c>
       <c r="F58" s="29" t="n"/>
       <c r="G58" s="30" t="n"/>
       <c r="H58" s="22" t="n">
@@ -3658,7 +3788,10 @@
         <f>SUM(D58:E58)</f>
         <v/>
       </c>
-      <c r="K58" s="115" t="n"/>
+      <c r="K58" s="124">
+        <f>SUM(J58:J61)</f>
+        <v/>
+      </c>
       <c r="L58" s="25" t="n"/>
       <c r="M58" s="28" t="n"/>
       <c r="N58" s="87" t="n"/>
@@ -3671,16 +3804,26 @@
           <t xml:space="preserve"> - Training</t>
         </is>
       </c>
-      <c r="D59" s="92" t="n"/>
-      <c r="E59" s="19" t="n"/>
+      <c r="D59" s="92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E59" s="19" t="n">
+        <v>6.5</v>
+      </c>
       <c r="F59" s="29" t="n"/>
       <c r="G59" s="30" t="n"/>
       <c r="H59" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="I59" s="23" t="n"/>
-      <c r="J59" s="23" t="n"/>
-      <c r="K59" s="24" t="n"/>
+      <c r="I59" s="99">
+        <f>(J59*8)</f>
+        <v/>
+      </c>
+      <c r="J59" s="23">
+        <f>SUM(D59:E59)</f>
+        <v/>
+      </c>
+      <c r="K59" s="119" t="n"/>
       <c r="L59" s="25" t="n"/>
       <c r="M59" s="28" t="n"/>
       <c r="N59" s="87" t="n"/>
@@ -3693,16 +3836,26 @@
           <t xml:space="preserve"> - Site ready training</t>
         </is>
       </c>
-      <c r="D60" s="92" t="n"/>
-      <c r="E60" s="19" t="n"/>
+      <c r="D60" s="92" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="F60" s="29" t="n"/>
       <c r="G60" s="30" t="n"/>
       <c r="H60" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="I60" s="23" t="n"/>
-      <c r="J60" s="23" t="n"/>
-      <c r="K60" s="24" t="n"/>
+      <c r="I60" s="99">
+        <f>(J60*8)</f>
+        <v/>
+      </c>
+      <c r="J60" s="23">
+        <f>SUM(D60:E60)</f>
+        <v/>
+      </c>
+      <c r="K60" s="119" t="n"/>
       <c r="L60" s="25" t="n"/>
       <c r="M60" s="28" t="n"/>
       <c r="N60" s="87" t="n"/>
@@ -3722,9 +3875,15 @@
       <c r="H61" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="I61" s="23" t="n"/>
-      <c r="J61" s="23" t="n"/>
-      <c r="K61" s="24" t="n"/>
+      <c r="I61" s="99">
+        <f>(J61*8)</f>
+        <v/>
+      </c>
+      <c r="J61" s="23">
+        <f>SUM(D61:E61)</f>
+        <v/>
+      </c>
+      <c r="K61" s="120" t="n"/>
       <c r="L61" s="25" t="n"/>
       <c r="M61" s="28" t="n"/>
       <c r="N61" s="87" t="n"/>
@@ -3738,18 +3897,9 @@
       <c r="F62" s="29" t="n"/>
       <c r="G62" s="30" t="n"/>
       <c r="H62" s="22" t="n"/>
-      <c r="I62" s="99">
-        <f>(J62*8)</f>
-        <v/>
-      </c>
-      <c r="J62" s="23">
-        <f>SUM(D62:E62)</f>
-        <v/>
-      </c>
-      <c r="K62" s="116">
-        <f>SUM(J62:J65)</f>
-        <v/>
-      </c>
+      <c r="I62" s="99" t="n"/>
+      <c r="J62" s="23" t="n"/>
+      <c r="K62" s="113" t="n"/>
       <c r="L62" s="25" t="n"/>
       <c r="M62" s="28" t="n"/>
       <c r="N62" s="87" t="n"/>
@@ -3767,15 +3917,9 @@
       <c r="F63" s="29" t="n"/>
       <c r="G63" s="30" t="n"/>
       <c r="H63" s="22" t="n"/>
-      <c r="I63" s="99">
-        <f>(J63*8)</f>
-        <v/>
-      </c>
-      <c r="J63" s="23">
-        <f>SUM(D63:E63)</f>
-        <v/>
-      </c>
-      <c r="K63" s="114" t="n"/>
+      <c r="I63" s="99" t="n"/>
+      <c r="J63" s="23" t="n"/>
+      <c r="K63" s="33" t="n"/>
       <c r="L63" s="25" t="n"/>
       <c r="M63" s="28" t="n"/>
       <c r="N63" s="87" t="n"/>
@@ -3788,8 +3932,12 @@
           <t xml:space="preserve"> - Tunning</t>
         </is>
       </c>
-      <c r="D64" s="92" t="n"/>
-      <c r="E64" s="19" t="n"/>
+      <c r="D64" s="92" t="n">
+        <v>40</v>
+      </c>
+      <c r="E64" s="19" t="n">
+        <v>40</v>
+      </c>
       <c r="F64" s="29" t="n"/>
       <c r="G64" s="30" t="n"/>
       <c r="H64" s="22" t="n">
@@ -3803,7 +3951,10 @@
         <f>SUM(D64:E64)</f>
         <v/>
       </c>
-      <c r="K64" s="114" t="n"/>
+      <c r="K64" s="124">
+        <f>0+SUM(J64:J65)</f>
+        <v/>
+      </c>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="28" t="n"/>
       <c r="N64" s="87" t="n"/>
@@ -3820,7 +3971,9 @@
       <c r="E65" s="19" t="n"/>
       <c r="F65" s="29" t="n"/>
       <c r="G65" s="30" t="n"/>
-      <c r="H65" s="22" t="n"/>
+      <c r="H65" s="22" t="n">
+        <v>8</v>
+      </c>
       <c r="I65" s="99">
         <f>(J65*8)</f>
         <v/>
@@ -3829,7 +3982,7 @@
         <f>SUM(D65:E65)</f>
         <v/>
       </c>
-      <c r="K65" s="115" t="n"/>
+      <c r="K65" s="120" t="n"/>
       <c r="L65" s="25" t="n"/>
       <c r="M65" s="28" t="n"/>
       <c r="N65" s="87" t="n"/>
@@ -3875,18 +4028,9 @@
       <c r="F68" s="29" t="n"/>
       <c r="G68" s="30" t="n"/>
       <c r="H68" s="22" t="n"/>
-      <c r="I68" s="99">
-        <f>(J68*8)</f>
-        <v/>
-      </c>
-      <c r="J68" s="23">
-        <f>SUM(D68:E68)</f>
-        <v/>
-      </c>
-      <c r="K68" s="91">
-        <f>J68</f>
-        <v/>
-      </c>
+      <c r="I68" s="99" t="n"/>
+      <c r="J68" s="23" t="n"/>
+      <c r="K68" s="91" t="n"/>
       <c r="L68" s="25" t="n"/>
       <c r="M68" s="28" t="n"/>
       <c r="N68" s="86" t="n"/>
@@ -3930,9 +4074,18 @@
         <v/>
       </c>
       <c r="H70" s="36" t="n"/>
-      <c r="I70" s="23" t="n"/>
-      <c r="J70" s="23" t="n"/>
-      <c r="K70" s="24" t="n"/>
+      <c r="I70" s="39">
+        <f>SUM(I12:I69)</f>
+        <v/>
+      </c>
+      <c r="J70" s="39">
+        <f>SUM(J12:J69)</f>
+        <v/>
+      </c>
+      <c r="K70" s="63">
+        <f>SUM(K12:K69)</f>
+        <v/>
+      </c>
       <c r="L70" s="40">
         <f>SUM(L12:L69)</f>
         <v/>
@@ -3949,9 +4102,9 @@
         <v/>
       </c>
       <c r="H71" s="79" t="n"/>
-      <c r="I71" s="23" t="n"/>
-      <c r="J71" s="23" t="n"/>
-      <c r="K71" s="24" t="n"/>
+      <c r="I71" s="80" t="n"/>
+      <c r="J71" s="80" t="n"/>
+      <c r="K71" s="80" t="n"/>
       <c r="L71" s="86" t="n"/>
     </row>
     <row r="72" ht="16" customHeight="1" s="59">
@@ -3964,11 +4117,8 @@
         <f>SUM(D16:D67)</f>
         <v/>
       </c>
-      <c r="I72" s="23" t="n"/>
-      <c r="J72" s="23" t="n"/>
-      <c r="K72" s="24" t="n"/>
-    </row>
-    <row r="73" ht="17" customHeight="1" s="59" thickBot="1">
+    </row>
+    <row r="73" ht="16" customHeight="1" s="59">
       <c r="C73" s="41" t="inlineStr">
         <is>
           <t>NCE hours:</t>
@@ -3978,9 +4128,6 @@
         <f>E74 * 8</f>
         <v/>
       </c>
-      <c r="I73" s="68" t="n"/>
-      <c r="J73" s="68" t="n"/>
-      <c r="K73" s="69" t="n"/>
     </row>
     <row r="74" ht="16" customHeight="1" s="59">
       <c r="C74" s="41" t="inlineStr">
@@ -3992,23 +4139,6 @@
         <f>SUM(E15:E68)</f>
         <v/>
       </c>
-      <c r="I74" s="39">
-        <f>SUM(I12:I73)</f>
-        <v/>
-      </c>
-      <c r="J74" s="39">
-        <f>SUM(J12:J73)</f>
-        <v/>
-      </c>
-      <c r="K74" s="63">
-        <f>SUM(K12:K73)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" ht="16" customHeight="1" s="59">
-      <c r="I75" s="80" t="n"/>
-      <c r="J75" s="80" t="n"/>
-      <c r="K75" s="80" t="n"/>
     </row>
     <row r="76" ht="16" customHeight="1" s="59">
       <c r="C76" s="41" t="inlineStr">
@@ -4080,11 +4210,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E82" s="117">
+      <c r="E82" s="125">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F82" s="118">
+      <c r="F82" s="126">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4102,11 +4232,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E83" s="119">
+      <c r="E83" s="127">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F83" s="120">
+      <c r="F83" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4124,11 +4254,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E84" s="119">
+      <c r="E84" s="127">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F84" s="120">
+      <c r="F84" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4146,11 +4276,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E85" s="119">
+      <c r="E85" s="127">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F85" s="120">
+      <c r="F85" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4168,11 +4298,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E86" s="119">
+      <c r="E86" s="127">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F86" s="120">
+      <c r="F86" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4190,11 +4320,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E87" s="119">
+      <c r="E87" s="127">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F87" s="120">
+      <c r="F87" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4212,11 +4342,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E88" s="119">
+      <c r="E88" s="127">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F88" s="120">
+      <c r="F88" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4230,11 +4360,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E89" s="119">
+      <c r="E89" s="127">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F89" s="120">
+      <c r="F89" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4248,11 +4378,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E90" s="119">
+      <c r="E90" s="127">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F90" s="120">
+      <c r="F90" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4268,16 +4398,16 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E91" s="119">
+      <c r="E91" s="127">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F91" s="120">
+      <c r="F91" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
-      <c r="G91" s="121" t="n"/>
-      <c r="H91" s="121" t="n"/>
+      <c r="G91" s="129" t="n"/>
+      <c r="H91" s="129" t="n"/>
     </row>
     <row r="92" ht="17" customHeight="1" s="59" thickBot="1">
       <c r="B92" s="55" t="n">
@@ -4288,11 +4418,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E92" s="122">
+      <c r="E92" s="130">
         <f>(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$G$12:$G$69)*hotel_cost)+(SUMIF($H$12:$H$69,Table22463443234[[#This Row],[Milestone]],$F$12:$F$69)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F92" s="123">
+      <c r="F92" s="131">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -4302,20 +4432,20 @@
         <f>SUBTOTAL(109,Table22463443234[CXC PM])</f>
         <v/>
       </c>
-      <c r="E93" s="124">
+      <c r="E93" s="132">
         <f>SUBTOTAL(109,Table22463443234[T&amp;E])</f>
         <v/>
       </c>
-      <c r="F93" s="125">
+      <c r="F93" s="133">
         <f>SUBTOTAL(109,Table22463443234[Total Price])</f>
         <v/>
       </c>
-      <c r="G93" s="126" t="inlineStr">
+      <c r="G93" s="134" t="inlineStr">
         <is>
           <t>Cell should be green if cross-check is accurate</t>
         </is>
       </c>
-      <c r="H93" s="127" t="n"/>
+      <c r="H93" s="135" t="n"/>
     </row>
     <row r="94">
       <c r="D94" s="71" t="inlineStr">
@@ -4335,24 +4465,25 @@
           <t>Costs per grade:</t>
         </is>
       </c>
-      <c r="D95" s="128">
+      <c r="D95" s="136">
         <f>Table22463443234[[#Totals],[CXC PM]]*cxc_rate</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="K62:K65"/>
+  <mergeCells count="9">
+    <mergeCell ref="K49:K54"/>
+    <mergeCell ref="K58:K61"/>
+    <mergeCell ref="K64:K65"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="K16:K18"/>
-    <mergeCell ref="K21:K25"/>
     <mergeCell ref="K28:K31"/>
     <mergeCell ref="K34:K37"/>
     <mergeCell ref="K41:K46"/>
-    <mergeCell ref="K49:K58"/>
+    <mergeCell ref="K21:K24"/>
   </mergeCells>
   <conditionalFormatting sqref="F93">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="9">
       <formula>$N$94</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4371,7 +4502,7 @@
   </sheetPr>
   <dimension ref="A1:V99"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="133" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D64" sqref="D64:E64"/>
     </sheetView>
   </sheetViews>
@@ -4393,12 +4524,12 @@
       <c r="L1" s="86" t="n"/>
     </row>
     <row r="2" ht="16" customHeight="1" s="59">
-      <c r="B2" s="111" t="inlineStr">
+      <c r="B2" s="116" t="inlineStr">
         <is>
           <t>Customer Details</t>
         </is>
       </c>
-      <c r="C2" s="112" t="n"/>
+      <c r="C2" s="117" t="n"/>
       <c r="L2" s="86" t="n"/>
     </row>
     <row r="3" ht="16" customHeight="1" s="59">
@@ -4622,7 +4753,7 @@
         <f>I16 * 8</f>
         <v/>
       </c>
-      <c r="K16" s="113">
+      <c r="K16" s="118">
         <f>SUM(I16:I18)</f>
         <v/>
       </c>
@@ -4653,7 +4784,7 @@
         <f>I17 * 8</f>
         <v/>
       </c>
-      <c r="K17" s="114" t="n"/>
+      <c r="K17" s="119" t="n"/>
       <c r="L17" s="25" t="n"/>
       <c r="M17" s="28" t="n"/>
       <c r="N17" s="88" t="n"/>
@@ -4681,7 +4812,7 @@
         <f>I18 * 8</f>
         <v/>
       </c>
-      <c r="K18" s="115" t="n"/>
+      <c r="K18" s="120" t="n"/>
       <c r="L18" s="25" t="n"/>
       <c r="M18" s="28" t="n"/>
       <c r="N18" s="88" t="n"/>
@@ -4745,7 +4876,7 @@
         <f>I21 * 8</f>
         <v/>
       </c>
-      <c r="K21" s="105">
+      <c r="K21" s="107">
         <f>SUM(I21:I25)</f>
         <v/>
       </c>
@@ -4776,7 +4907,7 @@
         <f>I22 * 8</f>
         <v/>
       </c>
-      <c r="K22" s="114" t="n"/>
+      <c r="K22" s="119" t="n"/>
       <c r="L22" s="25" t="n"/>
       <c r="M22" s="28" t="n"/>
       <c r="N22" s="87" t="n"/>
@@ -4808,7 +4939,7 @@
         <f>I23 * 8</f>
         <v/>
       </c>
-      <c r="K23" s="114" t="n"/>
+      <c r="K23" s="119" t="n"/>
       <c r="L23" s="25" t="n"/>
       <c r="M23" s="28" t="n"/>
       <c r="N23" s="88" t="n"/>
@@ -4840,7 +4971,7 @@
         <f>I24 * 8</f>
         <v/>
       </c>
-      <c r="K24" s="114" t="n"/>
+      <c r="K24" s="119" t="n"/>
       <c r="L24" s="25" t="n"/>
       <c r="M24" s="28" t="n"/>
       <c r="N24" s="88" t="n"/>
@@ -4864,7 +4995,7 @@
         <f>I25 * 8</f>
         <v/>
       </c>
-      <c r="K25" s="114" t="n"/>
+      <c r="K25" s="119" t="n"/>
       <c r="L25" s="25" t="n"/>
       <c r="M25" s="28" t="n"/>
       <c r="N25" s="88" t="n"/>
@@ -4928,7 +5059,7 @@
         <f>I28 * 8</f>
         <v/>
       </c>
-      <c r="K28" s="105">
+      <c r="K28" s="107">
         <f>SUM(I28:I31)</f>
         <v/>
       </c>
@@ -4959,7 +5090,7 @@
         <f>I29 * 8</f>
         <v/>
       </c>
-      <c r="K29" s="114" t="n"/>
+      <c r="K29" s="119" t="n"/>
       <c r="L29" s="25" t="n"/>
       <c r="M29" s="28" t="n"/>
       <c r="N29" s="88" t="n"/>
@@ -4991,7 +5122,7 @@
         <f>I30 * 8</f>
         <v/>
       </c>
-      <c r="K30" s="114" t="n"/>
+      <c r="K30" s="119" t="n"/>
       <c r="L30" s="25" t="n"/>
       <c r="M30" s="28" t="n"/>
       <c r="N30" s="87" t="n"/>
@@ -5023,7 +5154,7 @@
         <f>I31 * 8</f>
         <v/>
       </c>
-      <c r="K31" s="114" t="n"/>
+      <c r="K31" s="119" t="n"/>
       <c r="L31" s="25" t="n"/>
       <c r="M31" s="28" t="n"/>
       <c r="N31" s="89" t="n"/>
@@ -5087,7 +5218,7 @@
         <f>I34 * 8</f>
         <v/>
       </c>
-      <c r="K34" s="113">
+      <c r="K34" s="118">
         <f>SUM(I34:I37)</f>
         <v/>
       </c>
@@ -5118,7 +5249,7 @@
         <f>I35 * 8</f>
         <v/>
       </c>
-      <c r="K35" s="114" t="n"/>
+      <c r="K35" s="119" t="n"/>
       <c r="L35" s="25" t="n"/>
       <c r="M35" s="28" t="n"/>
       <c r="N35" s="87" t="n"/>
@@ -5150,7 +5281,7 @@
         <f>I36 * 8</f>
         <v/>
       </c>
-      <c r="K36" s="114" t="n"/>
+      <c r="K36" s="119" t="n"/>
       <c r="L36" s="25" t="n"/>
       <c r="M36" s="28" t="n"/>
       <c r="N36" s="89" t="n"/>
@@ -5178,7 +5309,7 @@
         <f>I37 * 8</f>
         <v/>
       </c>
-      <c r="K37" s="115" t="n"/>
+      <c r="K37" s="120" t="n"/>
       <c r="L37" s="25" t="n"/>
       <c r="M37" s="28" t="n"/>
       <c r="N37" s="89" t="n"/>
@@ -5264,7 +5395,7 @@
         <f>I41 * 8</f>
         <v/>
       </c>
-      <c r="K41" s="113">
+      <c r="K41" s="118">
         <f>SUM(I41:I48)</f>
         <v/>
       </c>
@@ -5295,7 +5426,7 @@
         <f>I42 * 8</f>
         <v/>
       </c>
-      <c r="K42" s="114" t="n"/>
+      <c r="K42" s="119" t="n"/>
       <c r="L42" s="25" t="n"/>
       <c r="M42" s="28" t="n"/>
       <c r="N42" s="89" t="n"/>
@@ -5323,7 +5454,7 @@
         <f>I43 * 8</f>
         <v/>
       </c>
-      <c r="K43" s="114" t="n"/>
+      <c r="K43" s="119" t="n"/>
       <c r="L43" s="25" t="n"/>
       <c r="M43" s="28" t="n"/>
       <c r="N43" s="89" t="n"/>
@@ -5345,7 +5476,7 @@
       </c>
       <c r="I44" s="23" t="n"/>
       <c r="J44" s="23" t="n"/>
-      <c r="K44" s="114" t="n"/>
+      <c r="K44" s="119" t="n"/>
       <c r="L44" s="25" t="n"/>
       <c r="M44" s="28" t="n"/>
       <c r="N44" s="89" t="n"/>
@@ -5367,7 +5498,7 @@
       </c>
       <c r="I45" s="23" t="n"/>
       <c r="J45" s="23" t="n"/>
-      <c r="K45" s="114" t="n"/>
+      <c r="K45" s="119" t="n"/>
       <c r="L45" s="25" t="n"/>
       <c r="M45" s="28" t="n"/>
       <c r="N45" s="89" t="n"/>
@@ -5389,7 +5520,7 @@
       </c>
       <c r="I46" s="23" t="n"/>
       <c r="J46" s="23" t="n"/>
-      <c r="K46" s="114" t="n"/>
+      <c r="K46" s="119" t="n"/>
       <c r="L46" s="25" t="n"/>
       <c r="M46" s="28" t="n"/>
       <c r="N46" s="89" t="n"/>
@@ -5411,7 +5542,7 @@
       </c>
       <c r="I47" s="23" t="n"/>
       <c r="J47" s="23" t="n"/>
-      <c r="K47" s="114" t="n"/>
+      <c r="K47" s="119" t="n"/>
       <c r="L47" s="25" t="n"/>
       <c r="M47" s="28" t="n"/>
       <c r="N47" s="89" t="n"/>
@@ -5439,7 +5570,7 @@
         <f>I48 * 8</f>
         <v/>
       </c>
-      <c r="K48" s="115" t="n"/>
+      <c r="K48" s="120" t="n"/>
       <c r="L48" s="25" t="n"/>
       <c r="M48" s="28" t="n"/>
       <c r="N48" s="87" t="n"/>
@@ -5507,7 +5638,7 @@
         <f>I51 * 8</f>
         <v/>
       </c>
-      <c r="K51" s="116">
+      <c r="K51" s="124">
         <f>SUM(I51:I58)</f>
         <v/>
       </c>
@@ -5538,7 +5669,7 @@
         <f>I52 * 8</f>
         <v/>
       </c>
-      <c r="K52" s="114" t="n"/>
+      <c r="K52" s="119" t="n"/>
       <c r="L52" s="25" t="n"/>
       <c r="M52" s="28" t="n"/>
       <c r="N52" s="88" t="n"/>
@@ -5566,7 +5697,7 @@
         <f>I53 * 8</f>
         <v/>
       </c>
-      <c r="K53" s="114" t="n"/>
+      <c r="K53" s="119" t="n"/>
       <c r="L53" s="25" t="n"/>
       <c r="M53" s="28" t="n"/>
       <c r="N53" s="87" t="n"/>
@@ -5594,7 +5725,7 @@
         <f>I54 * 8</f>
         <v/>
       </c>
-      <c r="K54" s="114" t="n"/>
+      <c r="K54" s="119" t="n"/>
       <c r="L54" s="25" t="n"/>
       <c r="M54" s="28" t="n"/>
       <c r="N54" s="87" t="n"/>
@@ -5622,7 +5753,7 @@
         <f>I55 * 8</f>
         <v/>
       </c>
-      <c r="K55" s="114" t="n"/>
+      <c r="K55" s="119" t="n"/>
       <c r="L55" s="25" t="n"/>
       <c r="M55" s="28" t="n"/>
       <c r="N55" s="87" t="n"/>
@@ -5650,7 +5781,7 @@
         <f>I56 * 8</f>
         <v/>
       </c>
-      <c r="K56" s="114" t="n"/>
+      <c r="K56" s="119" t="n"/>
       <c r="L56" s="25" t="n"/>
       <c r="M56" s="28" t="n"/>
       <c r="N56" s="87" t="n"/>
@@ -5672,7 +5803,7 @@
       </c>
       <c r="I57" s="23" t="n"/>
       <c r="J57" s="23" t="n"/>
-      <c r="K57" s="114" t="n"/>
+      <c r="K57" s="119" t="n"/>
       <c r="L57" s="25" t="n"/>
       <c r="M57" s="28" t="n"/>
       <c r="N57" s="87" t="n"/>
@@ -5704,7 +5835,7 @@
         <f>I58 * 8</f>
         <v/>
       </c>
-      <c r="K58" s="115" t="n"/>
+      <c r="K58" s="120" t="n"/>
       <c r="L58" s="25" t="n"/>
       <c r="M58" s="28" t="n"/>
       <c r="N58" s="87" t="n"/>
@@ -5784,7 +5915,7 @@
         <f>I62 * 8</f>
         <v/>
       </c>
-      <c r="K62" s="116">
+      <c r="K62" s="124">
         <f>SUM(I62:I65)</f>
         <v/>
       </c>
@@ -5815,7 +5946,7 @@
         <f>I63 * 8</f>
         <v/>
       </c>
-      <c r="K63" s="114" t="n"/>
+      <c r="K63" s="119" t="n"/>
       <c r="L63" s="25" t="n"/>
       <c r="M63" s="28" t="n"/>
       <c r="N63" s="87" t="n"/>
@@ -5847,7 +5978,7 @@
         <f>I64 * 8</f>
         <v/>
       </c>
-      <c r="K64" s="114" t="n"/>
+      <c r="K64" s="119" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="28" t="n"/>
       <c r="N64" s="87" t="n"/>
@@ -5875,7 +6006,7 @@
         <f>I65 * 8</f>
         <v/>
       </c>
-      <c r="K65" s="115" t="n"/>
+      <c r="K65" s="120" t="n"/>
       <c r="L65" s="25" t="n"/>
       <c r="M65" s="28" t="n"/>
       <c r="N65" s="87" t="n"/>
@@ -6186,11 +6317,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E86" s="117">
+      <c r="E86" s="125">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F86" s="118">
+      <c r="F86" s="126">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6208,11 +6339,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E87" s="119">
+      <c r="E87" s="127">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F87" s="120">
+      <c r="F87" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6230,11 +6361,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E88" s="119">
+      <c r="E88" s="127">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F88" s="120">
+      <c r="F88" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6252,11 +6383,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E89" s="119">
+      <c r="E89" s="127">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F89" s="120">
+      <c r="F89" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6274,11 +6405,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E90" s="119">
+      <c r="E90" s="127">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F90" s="120">
+      <c r="F90" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6296,11 +6427,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E91" s="119">
+      <c r="E91" s="127">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F91" s="120">
+      <c r="F91" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6318,11 +6449,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E92" s="119">
+      <c r="E92" s="127">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F92" s="120">
+      <c r="F92" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6336,11 +6467,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E93" s="119">
+      <c r="E93" s="127">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F93" s="120">
+      <c r="F93" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6354,11 +6485,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E94" s="119">
+      <c r="E94" s="127">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F94" s="120">
+      <c r="F94" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6374,16 +6505,16 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E95" s="119">
+      <c r="E95" s="127">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F95" s="120">
+      <c r="F95" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
-      <c r="G95" s="121" t="n"/>
-      <c r="H95" s="121" t="n"/>
+      <c r="G95" s="129" t="n"/>
+      <c r="H95" s="129" t="n"/>
     </row>
     <row r="96" ht="17" customHeight="1" s="59" thickBot="1">
       <c r="B96" s="55" t="n">
@@ -6394,11 +6525,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E96" s="122">
+      <c r="E96" s="130">
         <f>(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$G$12:$G$73)*hotel_cost)+(SUMIF($H$12:$H$73,Table224634432[[#This Row],[Milestone]],$F$12:$F$73)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F96" s="123">
+      <c r="F96" s="131">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -6408,20 +6539,20 @@
         <f>SUBTOTAL(109,Table224634432[CXC PM])</f>
         <v/>
       </c>
-      <c r="E97" s="124">
+      <c r="E97" s="132">
         <f>SUBTOTAL(109,Table224634432[T&amp;E])</f>
         <v/>
       </c>
-      <c r="F97" s="125">
+      <c r="F97" s="133">
         <f>SUBTOTAL(109,Table224634432[Total Price])</f>
         <v/>
       </c>
-      <c r="G97" s="126" t="inlineStr">
+      <c r="G97" s="134" t="inlineStr">
         <is>
           <t>Cell should be green if cross-check is accurate</t>
         </is>
       </c>
-      <c r="H97" s="127" t="n"/>
+      <c r="H97" s="135" t="n"/>
     </row>
     <row r="98">
       <c r="D98" s="71" t="inlineStr">
@@ -6441,7 +6572,7 @@
           <t>Costs per grade:</t>
         </is>
       </c>
-      <c r="D99" s="128">
+      <c r="D99" s="136">
         <f>Table224634432[[#Totals],[CXC PM]]*cxc_rate</f>
         <v/>
       </c>
@@ -6458,7 +6589,7 @@
     <mergeCell ref="K34:K37"/>
   </mergeCells>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="9">
       <formula>$N$98</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6477,8 +6608,8 @@
   </sheetPr>
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="131" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A49" zoomScale="131" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -6499,12 +6630,12 @@
       <c r="L1" s="86" t="n"/>
     </row>
     <row r="2" ht="16" customHeight="1" s="59">
-      <c r="B2" s="111" t="inlineStr">
+      <c r="B2" s="116" t="inlineStr">
         <is>
           <t>Customer Details</t>
         </is>
       </c>
-      <c r="C2" s="112" t="n"/>
+      <c r="C2" s="117" t="n"/>
       <c r="L2" s="86" t="n"/>
     </row>
     <row r="3" ht="16" customHeight="1" s="59">
@@ -6515,7 +6646,7 @@
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>cisco</t>
+          <t>XXX</t>
         </is>
       </c>
       <c r="L3" s="86" t="n"/>
@@ -6728,7 +6859,7 @@
         <f>SUM(D16:E16)</f>
         <v/>
       </c>
-      <c r="K16" s="113">
+      <c r="K16" s="118">
         <f>SUM(J16:J18)</f>
         <v/>
       </c>
@@ -6744,12 +6875,8 @@
           <t xml:space="preserve"> - Discovery &amp; Workshops</t>
         </is>
       </c>
-      <c r="D17" s="92" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="19" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D17" s="92" t="n"/>
+      <c r="E17" s="19" t="n"/>
       <c r="F17" s="29" t="n"/>
       <c r="G17" s="30" t="n"/>
       <c r="H17" s="22" t="n">
@@ -6763,7 +6890,7 @@
         <f>SUM(D17:E17)</f>
         <v/>
       </c>
-      <c r="K17" s="114" t="n"/>
+      <c r="K17" s="119" t="n"/>
       <c r="L17" s="25" t="n"/>
       <c r="M17" s="28" t="n"/>
       <c r="N17" s="88" t="n"/>
@@ -6776,12 +6903,8 @@
           <t xml:space="preserve"> - CRD creation/revision</t>
         </is>
       </c>
-      <c r="D18" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D18" s="92" t="n"/>
+      <c r="E18" s="19" t="n"/>
       <c r="F18" s="29" t="n"/>
       <c r="G18" s="30" t="n"/>
       <c r="H18" s="22" t="n">
@@ -6795,7 +6918,7 @@
         <f>SUM(D18:E18)</f>
         <v/>
       </c>
-      <c r="K18" s="115" t="n"/>
+      <c r="K18" s="120" t="n"/>
       <c r="L18" s="25" t="n"/>
       <c r="M18" s="28" t="n"/>
       <c r="N18" s="88" t="n"/>
@@ -6844,12 +6967,8 @@
           <t xml:space="preserve"> - Workshops</t>
         </is>
       </c>
-      <c r="D21" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D21" s="92" t="n"/>
+      <c r="E21" s="19" t="n"/>
       <c r="F21" s="29" t="n"/>
       <c r="G21" s="30" t="n"/>
       <c r="H21" s="22" t="n">
@@ -6863,7 +6982,7 @@
         <f>SUM(D21:E21)</f>
         <v/>
       </c>
-      <c r="K21" s="105">
+      <c r="K21" s="107">
         <f>SUM(J21:J25)</f>
         <v/>
       </c>
@@ -6879,12 +6998,8 @@
           <t xml:space="preserve"> - Draft  Solution Design Document (SDD)</t>
         </is>
       </c>
-      <c r="D22" s="92" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="19" t="n">
-        <v>2</v>
-      </c>
+      <c r="D22" s="92" t="n"/>
+      <c r="E22" s="19" t="n"/>
       <c r="F22" s="29" t="n"/>
       <c r="G22" s="30" t="n"/>
       <c r="H22" s="22" t="n">
@@ -6898,7 +7013,7 @@
         <f>SUM(D22:E22)</f>
         <v/>
       </c>
-      <c r="K22" s="114" t="n"/>
+      <c r="K22" s="119" t="n"/>
       <c r="L22" s="25" t="n"/>
       <c r="M22" s="28" t="n"/>
       <c r="N22" s="87" t="n"/>
@@ -6911,10 +7026,10 @@
           <t xml:space="preserve"> - Review &amp; update</t>
         </is>
       </c>
-      <c r="D23" s="108" t="n">
+      <c r="D23" s="100" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="109" t="n">
+      <c r="E23" s="101" t="n">
         <v>1</v>
       </c>
       <c r="F23" s="29" t="n"/>
@@ -6930,7 +7045,7 @@
         <f>SUM(D23:E23)</f>
         <v/>
       </c>
-      <c r="K23" s="114" t="n"/>
+      <c r="K23" s="119" t="n"/>
       <c r="L23" s="25" t="n"/>
       <c r="M23" s="28" t="n"/>
       <c r="N23" s="88" t="n"/>
@@ -6943,10 +7058,10 @@
           <t xml:space="preserve"> - Presentation to customer &amp; final updates</t>
         </is>
       </c>
-      <c r="D24" s="108" t="n">
+      <c r="D24" s="100" t="n">
         <v>0.5</v>
       </c>
-      <c r="E24" s="110" t="n">
+      <c r="E24" s="102" t="n">
         <v>0.5</v>
       </c>
       <c r="F24" s="29" t="n"/>
@@ -6962,7 +7077,7 @@
         <f>SUM(D24:E24)</f>
         <v/>
       </c>
-      <c r="K24" s="114" t="n"/>
+      <c r="K24" s="119" t="n"/>
       <c r="L24" s="25" t="n"/>
       <c r="M24" s="28" t="n"/>
       <c r="N24" s="88" t="n"/>
@@ -6986,7 +7101,7 @@
         <f>SUM(D25:E25)</f>
         <v/>
       </c>
-      <c r="K25" s="114" t="n"/>
+      <c r="K25" s="119" t="n"/>
       <c r="L25" s="25" t="n"/>
       <c r="M25" s="28" t="n"/>
       <c r="N25" s="88" t="n"/>
@@ -7050,7 +7165,7 @@
         <f>SUM(D28:E28)</f>
         <v/>
       </c>
-      <c r="K28" s="105">
+      <c r="K28" s="107">
         <f>SUM(J28:J31)</f>
         <v/>
       </c>
@@ -7066,12 +7181,8 @@
           <t xml:space="preserve"> - Draft Implementation Plan</t>
         </is>
       </c>
-      <c r="D29" s="92" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" s="19" t="n">
-        <v>2</v>
-      </c>
+      <c r="D29" s="92" t="n"/>
+      <c r="E29" s="19" t="n"/>
       <c r="F29" s="29" t="n"/>
       <c r="G29" s="30" t="n"/>
       <c r="H29" s="22" t="n">
@@ -7085,7 +7196,7 @@
         <f>SUM(D29:E29)</f>
         <v/>
       </c>
-      <c r="K29" s="114" t="n"/>
+      <c r="K29" s="119" t="n"/>
       <c r="L29" s="25" t="n"/>
       <c r="M29" s="28" t="n"/>
       <c r="N29" s="88" t="n"/>
@@ -7117,7 +7228,7 @@
         <f>SUM(D30:E30)</f>
         <v/>
       </c>
-      <c r="K30" s="114" t="n"/>
+      <c r="K30" s="119" t="n"/>
       <c r="L30" s="25" t="n"/>
       <c r="M30" s="28" t="n"/>
       <c r="N30" s="87" t="n"/>
@@ -7149,7 +7260,7 @@
         <f>SUM(D31:E31)</f>
         <v/>
       </c>
-      <c r="K31" s="114" t="n"/>
+      <c r="K31" s="119" t="n"/>
       <c r="L31" s="25" t="n"/>
       <c r="M31" s="28" t="n"/>
       <c r="N31" s="89" t="n"/>
@@ -7213,7 +7324,7 @@
         <f>SUM(D34:E34)</f>
         <v/>
       </c>
-      <c r="K34" s="113">
+      <c r="K34" s="118">
         <f>SUM(J34:J37)</f>
         <v/>
       </c>
@@ -7229,12 +7340,8 @@
           <t xml:space="preserve"> - Draft Test Plan (NRFU)</t>
         </is>
       </c>
-      <c r="D35" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D35" s="92" t="n"/>
+      <c r="E35" s="19" t="n"/>
       <c r="F35" s="29" t="n"/>
       <c r="G35" s="30" t="n"/>
       <c r="H35" s="22" t="n">
@@ -7248,7 +7355,7 @@
         <f>SUM(D35:E35)</f>
         <v/>
       </c>
-      <c r="K35" s="114" t="n"/>
+      <c r="K35" s="119" t="n"/>
       <c r="L35" s="25" t="n"/>
       <c r="M35" s="28" t="n"/>
       <c r="N35" s="87" t="n"/>
@@ -7280,7 +7387,7 @@
         <f>SUM(D36:E36)</f>
         <v/>
       </c>
-      <c r="K36" s="114" t="n"/>
+      <c r="K36" s="119" t="n"/>
       <c r="L36" s="25" t="n"/>
       <c r="M36" s="28" t="n"/>
       <c r="N36" s="89" t="n"/>
@@ -7308,7 +7415,7 @@
         <f>SUM(D37:E37)</f>
         <v/>
       </c>
-      <c r="K37" s="115" t="n"/>
+      <c r="K37" s="120" t="n"/>
       <c r="L37" s="25" t="n"/>
       <c r="M37" s="28" t="n"/>
       <c r="N37" s="89" t="n"/>
@@ -7392,7 +7499,7 @@
         <f>SUM(D41:E41)</f>
         <v/>
       </c>
-      <c r="K41" s="113">
+      <c r="K41" s="118">
         <f>SUM(J41:J46)</f>
         <v/>
       </c>
@@ -7408,12 +7515,8 @@
           <t xml:space="preserve"> - Build/configure lab</t>
         </is>
       </c>
-      <c r="D42" s="92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="D42" s="92" t="n"/>
+      <c r="E42" s="19" t="n"/>
       <c r="F42" s="29" t="n"/>
       <c r="G42" s="30" t="n"/>
       <c r="H42" s="22" t="n">
@@ -7427,7 +7530,7 @@
         <f>SUM(D42:E42)</f>
         <v/>
       </c>
-      <c r="K42" s="114" t="n"/>
+      <c r="K42" s="119" t="n"/>
       <c r="L42" s="25" t="n"/>
       <c r="M42" s="28" t="n"/>
       <c r="N42" s="89" t="n"/>
@@ -7440,12 +7543,8 @@
           <t xml:space="preserve"> - Test Execution</t>
         </is>
       </c>
-      <c r="D43" s="92" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="19" t="n">
-        <v>1</v>
-      </c>
+      <c r="D43" s="92" t="n"/>
+      <c r="E43" s="19" t="n"/>
       <c r="F43" s="29" t="n"/>
       <c r="G43" s="30" t="n"/>
       <c r="H43" s="22" t="n">
@@ -7459,7 +7558,7 @@
         <f>SUM(D43:E43)</f>
         <v/>
       </c>
-      <c r="K43" s="114" t="n"/>
+      <c r="K43" s="119" t="n"/>
       <c r="L43" s="25" t="n"/>
       <c r="M43" s="28" t="n"/>
       <c r="N43" s="89" t="n"/>
@@ -7487,7 +7586,7 @@
         <f>SUM(D44:E44)</f>
         <v/>
       </c>
-      <c r="K44" s="114" t="n"/>
+      <c r="K44" s="119" t="n"/>
       <c r="L44" s="25" t="n"/>
       <c r="M44" s="28" t="n"/>
       <c r="N44" s="89" t="n"/>
@@ -7515,7 +7614,7 @@
         <f>SUM(D45:E45)</f>
         <v/>
       </c>
-      <c r="K45" s="114" t="n"/>
+      <c r="K45" s="119" t="n"/>
       <c r="L45" s="25" t="n"/>
       <c r="M45" s="28" t="n"/>
       <c r="N45" s="89" t="n"/>
@@ -7543,7 +7642,7 @@
         <f>SUM(D46:E46)</f>
         <v/>
       </c>
-      <c r="K46" s="115" t="n"/>
+      <c r="K46" s="120" t="n"/>
       <c r="L46" s="25" t="n"/>
       <c r="M46" s="28" t="n"/>
       <c r="N46" s="87" t="n"/>
@@ -7611,7 +7710,7 @@
         <f>SUM(D49:E49)</f>
         <v/>
       </c>
-      <c r="K49" s="116">
+      <c r="K49" s="124">
         <f>SUM(J49:J60)</f>
         <v/>
       </c>
@@ -7628,10 +7727,10 @@
         </is>
       </c>
       <c r="D50" s="92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50" s="19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50" s="29" t="n"/>
       <c r="G50" s="30" t="n"/>
@@ -7646,7 +7745,7 @@
         <f>SUM(D50:E50)</f>
         <v/>
       </c>
-      <c r="K50" s="114" t="n"/>
+      <c r="K50" s="119" t="n"/>
       <c r="L50" s="25" t="n"/>
       <c r="M50" s="28" t="n"/>
       <c r="N50" s="87" t="n"/>
@@ -7674,7 +7773,7 @@
         <f>SUM(D51:E51)</f>
         <v/>
       </c>
-      <c r="K51" s="114" t="n"/>
+      <c r="K51" s="119" t="n"/>
       <c r="L51" s="25" t="n"/>
       <c r="M51" s="28" t="n"/>
       <c r="N51" s="88" t="n"/>
@@ -7702,7 +7801,7 @@
         <f>SUM(D52:E52)</f>
         <v/>
       </c>
-      <c r="K52" s="114" t="n"/>
+      <c r="K52" s="119" t="n"/>
       <c r="L52" s="25" t="n"/>
       <c r="M52" s="28" t="n"/>
       <c r="N52" s="87" t="n"/>
@@ -7730,7 +7829,7 @@
         <f>SUM(D53:E53)</f>
         <v/>
       </c>
-      <c r="K53" s="114" t="n"/>
+      <c r="K53" s="119" t="n"/>
       <c r="L53" s="25" t="n"/>
       <c r="M53" s="28" t="n"/>
       <c r="N53" s="87" t="n"/>
@@ -7758,7 +7857,7 @@
         <f>SUM(D54:E54)</f>
         <v/>
       </c>
-      <c r="K54" s="114" t="n"/>
+      <c r="K54" s="119" t="n"/>
       <c r="L54" s="25" t="n"/>
       <c r="M54" s="28" t="n"/>
       <c r="N54" s="87" t="n"/>
@@ -7786,7 +7885,7 @@
         <f>SUM(D55:E55)</f>
         <v/>
       </c>
-      <c r="K55" s="114" t="n"/>
+      <c r="K55" s="119" t="n"/>
       <c r="L55" s="25" t="n"/>
       <c r="M55" s="28" t="n"/>
       <c r="N55" s="87" t="n"/>
@@ -7814,7 +7913,7 @@
         <f>SUM(D56:E56)</f>
         <v/>
       </c>
-      <c r="K56" s="114" t="n"/>
+      <c r="K56" s="119" t="n"/>
       <c r="L56" s="25" t="n"/>
       <c r="M56" s="28" t="n"/>
       <c r="N56" s="87" t="n"/>
@@ -7842,7 +7941,7 @@
         <f>SUM(D57:E57)</f>
         <v/>
       </c>
-      <c r="K57" s="114" t="n"/>
+      <c r="K57" s="119" t="n"/>
       <c r="L57" s="25" t="n"/>
       <c r="M57" s="28" t="n"/>
       <c r="N57" s="87" t="n"/>
@@ -7870,7 +7969,7 @@
         <f>SUM(D58:E58)</f>
         <v/>
       </c>
-      <c r="K58" s="114" t="n"/>
+      <c r="K58" s="119" t="n"/>
       <c r="L58" s="25" t="n"/>
       <c r="M58" s="28" t="n"/>
       <c r="N58" s="87" t="n"/>
@@ -7898,7 +7997,7 @@
         <f>SUM(D59:E59)</f>
         <v/>
       </c>
-      <c r="K59" s="114" t="n"/>
+      <c r="K59" s="119" t="n"/>
       <c r="L59" s="25" t="n"/>
       <c r="M59" s="28" t="n"/>
       <c r="N59" s="87" t="n"/>
@@ -7930,7 +8029,7 @@
         <f>SUM(D60:E60)</f>
         <v/>
       </c>
-      <c r="K60" s="115" t="n"/>
+      <c r="K60" s="120" t="n"/>
       <c r="L60" s="25" t="n"/>
       <c r="M60" s="28" t="n"/>
       <c r="N60" s="87" t="n"/>
@@ -7995,12 +8094,8 @@
           <t xml:space="preserve"> - Knowledge transfer</t>
         </is>
       </c>
-      <c r="D64" s="92" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" s="19" t="n">
-        <v>2</v>
-      </c>
+      <c r="D64" s="92" t="n"/>
+      <c r="E64" s="19" t="n"/>
       <c r="F64" s="29" t="n"/>
       <c r="G64" s="30" t="n"/>
       <c r="H64" s="22" t="n">
@@ -8014,7 +8109,7 @@
         <f>SUM(D64:E64)</f>
         <v/>
       </c>
-      <c r="K64" s="116">
+      <c r="K64" s="124">
         <f>SUM(J64:J67)</f>
         <v/>
       </c>
@@ -8030,12 +8125,8 @@
           <t xml:space="preserve"> - Training</t>
         </is>
       </c>
-      <c r="D65" s="92" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E65" s="19" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="D65" s="92" t="n"/>
+      <c r="E65" s="19" t="n"/>
       <c r="F65" s="29" t="n"/>
       <c r="G65" s="30" t="n"/>
       <c r="H65" s="22" t="n">
@@ -8049,7 +8140,7 @@
         <f>SUM(D65:E65)</f>
         <v/>
       </c>
-      <c r="K65" s="114" t="n"/>
+      <c r="K65" s="119" t="n"/>
       <c r="L65" s="25" t="n"/>
       <c r="M65" s="28" t="n"/>
       <c r="N65" s="87" t="n"/>
@@ -8081,7 +8172,7 @@
         <f>SUM(D66:E66)</f>
         <v/>
       </c>
-      <c r="K66" s="114" t="n"/>
+      <c r="K66" s="119" t="n"/>
       <c r="L66" s="25" t="n"/>
       <c r="M66" s="28" t="n"/>
       <c r="N66" s="87" t="n"/>
@@ -8109,7 +8200,7 @@
         <f>SUM(D67:E67)</f>
         <v/>
       </c>
-      <c r="K67" s="115" t="n"/>
+      <c r="K67" s="120" t="n"/>
       <c r="L67" s="25" t="n"/>
       <c r="M67" s="28" t="n"/>
       <c r="N67" s="87" t="n"/>
@@ -8420,11 +8511,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E88" s="117">
+      <c r="E88" s="125">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F88" s="118">
+      <c r="F88" s="126">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8442,11 +8533,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E89" s="119">
+      <c r="E89" s="127">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F89" s="120">
+      <c r="F89" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8464,11 +8555,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E90" s="119">
+      <c r="E90" s="127">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F90" s="120">
+      <c r="F90" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8486,11 +8577,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E91" s="119">
+      <c r="E91" s="127">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F91" s="120">
+      <c r="F91" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8508,11 +8599,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E92" s="119">
+      <c r="E92" s="127">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F92" s="120">
+      <c r="F92" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8530,11 +8621,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E93" s="119">
+      <c r="E93" s="127">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F93" s="120">
+      <c r="F93" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8552,11 +8643,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E94" s="119">
+      <c r="E94" s="127">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F94" s="120">
+      <c r="F94" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8570,11 +8661,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E95" s="119">
+      <c r="E95" s="127">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F95" s="120">
+      <c r="F95" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8588,11 +8679,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E96" s="119">
+      <c r="E96" s="127">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F96" s="120">
+      <c r="F96" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8608,16 +8699,16 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E97" s="119">
+      <c r="E97" s="127">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F97" s="120">
+      <c r="F97" s="128">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
-      <c r="G97" s="121" t="n"/>
-      <c r="H97" s="121" t="n"/>
+      <c r="G97" s="129" t="n"/>
+      <c r="H97" s="129" t="n"/>
     </row>
     <row r="98" ht="17" customHeight="1" s="59" thickBot="1">
       <c r="B98" s="55" t="n">
@@ -8628,11 +8719,11 @@
         <f>SUM(#REF!*cxc_pm_loading)</f>
         <v/>
       </c>
-      <c r="E98" s="122">
+      <c r="E98" s="130">
         <f>(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$G$12:$G$75)*hotel_cost)+(SUMIF($H$12:$H$75,Table2246344323[[#This Row],[Milestone]],$F$12:$F$75)*flight_cost)</f>
         <v/>
       </c>
-      <c r="F98" s="123">
+      <c r="F98" s="131">
         <f>SUM(#REF!)</f>
         <v/>
       </c>
@@ -8642,20 +8733,20 @@
         <f>SUBTOTAL(109,Table2246344323[CXC PM])</f>
         <v/>
       </c>
-      <c r="E99" s="124">
+      <c r="E99" s="132">
         <f>SUBTOTAL(109,Table2246344323[T&amp;E])</f>
         <v/>
       </c>
-      <c r="F99" s="125">
+      <c r="F99" s="133">
         <f>SUBTOTAL(109,Table2246344323[Total Price])</f>
         <v/>
       </c>
-      <c r="G99" s="126" t="inlineStr">
+      <c r="G99" s="134" t="inlineStr">
         <is>
           <t>Cell should be green if cross-check is accurate</t>
         </is>
       </c>
-      <c r="H99" s="127" t="n"/>
+      <c r="H99" s="135" t="n"/>
     </row>
     <row r="100">
       <c r="D100" s="71" t="inlineStr">
@@ -8675,7 +8766,7 @@
           <t>Costs per grade:</t>
         </is>
       </c>
-      <c r="D101" s="128">
+      <c r="D101" s="136">
         <f>Table2246344323[[#Totals],[CXC PM]]*cxc_rate</f>
         <v/>
       </c>
@@ -8692,7 +8783,7 @@
     <mergeCell ref="K41:K46"/>
   </mergeCells>
   <conditionalFormatting sqref="F99">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="9">
       <formula>$N$100</formula>
     </cfRule>
   </conditionalFormatting>
